--- a/pred_ohlcv/54_21/2020-01-16 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 XRP ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>-3196397.333215</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-3718205.819579</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-3563629.36376867</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-3747453.74166867</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-3254752.02991589</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-3224605.42371589</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-3259205.754840651</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-3259205.754840651</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-3259205.754840651</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-3230140.458365411</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-3193307.15806541</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-3087814.68976541</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-3087814.68976541</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-3148005.039465411</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-3153430.07326541</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-3137747.62647938</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-3051597.47351744</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-3148564.90521744</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-3128974.41871744</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>4602581.76885781</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>3462859.294781379</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>2949763.19335635</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1669538.557601299</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1565361.585401299</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1812026.020901299</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1785102.543101299</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1746434.239531179</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1608572.22941165</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1653222.923411649</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1793824.37991165</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2051063.066211649</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1928634.31671165</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>10980370.07575748</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>10309451.95750326</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>9878495.209018495</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>9491636.459388625</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>9756544.993688624</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>10876198.07498455</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>11632206.45444399</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>10643830.17687353</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>11023104.23929961</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>10452042.42432569</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>9636265.073076764</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>9135244.770178454</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>8269497.078880344</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>7629224.750816364</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 XRP ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>-3196397.333215</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-3718205.819579</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-3563629.36376867</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-3747453.74166867</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-3095398.91781744</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-3163768.05671744</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>4602581.76885781</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>3462859.294781379</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>2949763.19335635</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>1669538.557601299</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>1565361.585401299</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>1812026.020901299</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>1785102.543101299</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>1746434.239531179</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>1608572.22941165</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>1653222.923411649</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>1793824.37991165</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>2051063.066211649</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>1928634.31671165</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>10103553.90600245</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>10980370.07575748</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>10309451.95750326</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>9878495.209018495</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>9491636.459388625</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>9756544.993688624</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>10876198.07498455</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>11632206.45444399</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>10643830.17687353</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>11023104.23929961</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>10452042.42432569</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>9636265.073076764</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>9135244.770178454</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>8269497.078880344</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>7629224.750816364</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>6555929.084016364</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
